--- a/peticoes/entidades_identificadas.xlsx
+++ b/peticoes/entidades_identificadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,65 +451,80 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>DATA_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EMAIL</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>LOC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LOC_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LOC_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MISC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>OAB</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ORG</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ORG_2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ORG_3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ORG_4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PER_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PER_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TELEFONE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>TEXT</t>
         </is>
@@ -520,12 +535,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -536,6 +551,9 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -553,7 +571,10 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Ao</t>
         </is>
@@ -564,56 +585,70 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Ilmo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>LEONILDO ROLIM DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>LEONILDO ROLIM DOS SANTOS (</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Proposta</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Parecer Jurídico Sigiloso</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -625,44 +660,47 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>OAB</t>
+          <t>SP nº</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C.</t>
+          <t>C.:</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+          <t>A/</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>OAB/</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Dr. Luis Bitetti</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>bitetti@adv.oabsp.org.br</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -674,18 +712,21 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Prezado Senhor</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -696,6 +737,9 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -705,47 +749,50 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Dra</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>HENRIQUE LINDENBOJM</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HALBA MERY PEREBONI ROCCO</t>
+          <t>HENRIQUE LINDENBOJM,</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>AFFONSO FERREIRA ADVOGADOS</t>
+          <t>HALBA MERY PEREBONI ROCCO e</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>AFFONSO FERREIRA ADVOGADOS,</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -753,85 +800,98 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Desapropriação Indireta</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Ubatumirim</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ubatuba</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>União</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Súmula Vinculante</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>BR-101</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>STF</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>BR-101)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>SP (</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>STF)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>AGRÍCOLA AREIA BRANCA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>AGRÍCOLA AREIA BRANCA.</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Autores</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -843,46 +903,49 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>BR-101</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>Notificado</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>BR-101 reivindicado</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>O transcurso</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>seara</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -892,29 +955,32 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Notificado</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Poder Judiciário</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -922,6 +988,9 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -939,7 +1008,10 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
         <is>
           <t xml:space="preserve">			Sem mais para o momento, firmamo-nos, atenciosamente,</t>
         </is>
@@ -955,17 +1027,20 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>AFRANIO AFFONSO FERREIRA NETO</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -979,7 +1054,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>OAB-SP</t>
+          <t>OAB-SP nº 155.406</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -988,6 +1063,9 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -999,17 +1077,20 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>GUSTAVO SURIAN BALESTRERO</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1023,7 +1104,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>OAB-SP</t>
+          <t>OAB-SP nº 207.405</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1032,6 +1113,9 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/peticoes/entidades_identificadas.xlsx
+++ b/peticoes/entidades_identificadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,80 +451,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DATA_2</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>LOC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>LOC_2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LOC_2</t>
+          <t>LOC_3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LOC_3</t>
+          <t>MISC</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>OAB</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>OAB</t>
+          <t>ORG</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>ORG_2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ORG_2</t>
+          <t>ORG_3</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ORG_3</t>
+          <t>ORG_4</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ORG_4</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PER_2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>PER_2</t>
+          <t>TELEFONE</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PER_3</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TELEFONE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>TEXT</t>
         </is>
@@ -535,12 +525,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -552,8 +542,6 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -572,9 +560,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Ao</t>
         </is>
@@ -585,70 +571,58 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Ilmo</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>LEONILDO ROLIM DOS SANTOS (</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Sr. Leonildo</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Sr. Leonildo</t>
+          <t>Sr. LEONILDO ROLIM DOS SANTOS</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10/06/2024</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Proposta</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Parecer Jurídico Sigiloso</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -660,10 +634,14 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SP nº</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SP nº</t>
+          <t>OAB/</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -676,31 +654,25 @@
           <t>A/</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>OAB/</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Dr. Luis Bitetti</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>bitetti@adv.oabsp.org.br</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -713,20 +685,18 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prezado Senhor</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -738,8 +708,6 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -749,50 +717,48 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dra</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>HALBA MERY PEREBONI ROCCO e</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HENRIQUE LINDENBOJM,</t>
+          <t>AFFONSO FERREIRA ADVOGADOS,</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>HALBA MERY PEREBONI ROCCO e</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>AFFONSO FERREIRA ADVOGADOS,</t>
-        </is>
-      </c>
+          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
+          <t>Dr. HENRIQUE LINDENBOJM</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -800,98 +766,88 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Desapropriação Indireta</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ubatumirim</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ubatumirim</t>
+          <t>Ubatuba</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ubatuba</t>
+          <t>União</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>União</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>Súmula Vinculante</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>BR-101)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>SP (</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>STF)</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>BR-101)</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>SP (</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>STF)</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16/08/2024</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>AGRÍCOLA AREIA BRANCA.</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Autores</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -903,49 +859,47 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BR-101 reivindicado</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Notificado</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>O transcurso</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>BR-101 reivindicado</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>O transcurso</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>seara</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>seara</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>Notificante</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -956,31 +910,29 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Notificado</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Notificado</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Poder Judiciário</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -989,8 +941,6 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1009,9 +959,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t xml:space="preserve">			Sem mais para o momento, firmamo-nos, atenciosamente,</t>
         </is>
@@ -1028,19 +976,17 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>AFRANIO AFFONSO FERREIRA NETO</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>AFRANIO AFFONSO FERREIRA NETO</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1051,12 +997,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>OAB-SP nº 155.406</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1064,8 +1010,6 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1077,20 +1021,18 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>GUSTAVO SURIAN BALESTRERO</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1101,12 +1043,12 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>OAB-SP nº 207.405</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1114,8 +1056,6 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/peticoes/entidades_identificadas.xlsx
+++ b/peticoes/entidades_identificadas.xlsx
@@ -451,62 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>DATA_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EMAIL</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>LOC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LOC_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LOC_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MISC</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>OAB</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ORG</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ORG_2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ORG_3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ORG_4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PER</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>PER_2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -525,12 +525,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -541,7 +541,11 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>São Paulo, 02 de setembro de 2024.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -571,58 +575,74 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Ilmo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>LEONILDO ROLIM DOS SANTOS (</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Sr. LEONILDO ROLIM DOS SANTOS</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ilmo. Sr. [ORG]“[PER]”)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Proposta</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Parecer Jurídico Sigiloso</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ref: [PER] ([DATA]) e Proposta ([DATA])</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -634,45 +654,49 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>SP nº</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>OAB/</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>C.:</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>A/</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Dr. Luis Bitetti</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[ORG][ORG] [PER] – [ORG][ORG] 84.009</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>bitetti@adv.oabsp.org.br</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -684,19 +708,23 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E-mail: [EMAIL] </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Prezado Senhor</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -707,7 +735,11 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Prezado Senhor,</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -717,48 +749,52 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Dra</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>HENRIQUE LINDENBOJM,</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>HALBA MERY PEREBONI ROCCO e</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>AFFONSO FERREIRA ADVOGADOS,</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Dr. HENRIQUE LINDENBOJM</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Na qualidade de advogados da [ORG] cessionária dos honorários contratuais então titulados pelo escritório [ORG] Dra. [ORG] Dr. [ORG] em resposta ao parecer e à proposta em referência, e considerando que:</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -766,88 +802,104 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Desapropriação Indireta</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(a) a ora Notificante adquiriu de boa-fé os créditos de honorários devidos por décadas de patrocínio da ação de [PER] nº 0527173-63.1994.4.03.6100, cujos requisitórios foram expedidos de forma apartada da verba principal;</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Ubatumirim</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ubatuba</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>União</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Súmula Vinculante</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>BR-101)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SP (</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>STF)</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(b) Tal verba, de natureza alimentar (Súmula Vinculante 47/[ORG], é autônoma e não possui relação com a indenização devida pela União em decorrência da desapropriação de áreas situadas no município de Ubatuba/[ORG]Ubatumirim) na década de setenta para a expansão de rodovia federal ([ORG];</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>AGRÍCOLA AREIA BRANCA.</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Autores</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(c) Eventual confusão entre áreas desapropriadas, conforme alegação descrita no parecer, se daria exclusivamente por uma sobreposição de glebas dos [PER] com outra limítrofe e titulada pela companhia [ORG] Aliás, conforme expressamente reconhecido na proposta de [DATA]; e </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -859,47 +911,51 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>BR-101 reivindicado</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Notificado</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>O transcurso</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Sr. Leonildo</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			(d) [ORG] de décadas sem oposição, a tempo e modo, pelo [ORG] ([PER]) ocorrendo, sem qualquer dúvida, a extinção de eventual direito pela ocorrência da prescrição, uma vez que a o trecho da estrada [ORG] fora construído há mais de 50 (cinquenta) anos.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>seara</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -909,30 +965,34 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Vimos notificá-lo da inconsistência da pretensão vertida no parecer e na proposição e da tentativa ilegítima da postulação frente à Notificante, a qual defenderá seu direito em qualquer via que se fizer necessária, inclusive na seara deontológica.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Notificado</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Notificante</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Poder Judiciário</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -940,7 +1000,11 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">			Finalmente, em eventual investida judicial, a Notificante vindica que o Notificado apresente judicialmente esta missiva em demonstração de boa-fé processual e respeito ao Poder Judiciário.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -979,14 +1043,18 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>AFRANIO AFFONSO FERREIRA NETO</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[PER]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -997,19 +1065,23 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>OAB-SP nº 155.406</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[OAB]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1021,18 +1093,22 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>GUSTAVO SURIAN BALESTRERO</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[ORG]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1043,19 +1119,23 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>OAB-SP nº 207.405</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[OAB]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
